--- a/source/databricks/calculation_engine/tests/features/wholesale_calculation/given_es_and_brp_and_res_change/Oracle - tariffs.xlsx
+++ b/source/databricks/calculation_engine/tests/features/wholesale_calculation/given_es_and_brp_and_res_change/Oracle - tariffs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\given_a_wholesale_calculation\when_minimal_standard_scenario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\opengeh-wholesale\source\databricks\calculation_engine\tests\features\wholesale_calculation\given_es_and_brp_and_res_change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5D9B41-4629-42D1-BE4C-FE1156115C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64D46CE-0F74-44E7-B2F0-1A0DDCF2A0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="21100" xr2:uid="{029705A5-E2D6-4928-9AB0-F32087606243}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="113">
   <si>
     <t>charge_price</t>
   </si>
@@ -83,12 +83,6 @@
     <t>180000000000000001</t>
   </si>
   <si>
-    <t>090000000000180001</t>
-  </si>
-  <si>
-    <t>180000000000000002</t>
-  </si>
-  <si>
     <t>170000000000000201</t>
   </si>
   <si>
@@ -146,18 +140,9 @@
     <t>E20</t>
   </si>
   <si>
-    <t>170000000150001000</t>
-  </si>
-  <si>
-    <t>180000000150001000</t>
-  </si>
-  <si>
     <t>070000000000170201</t>
   </si>
   <si>
-    <t>170000000000000102</t>
-  </si>
-  <si>
     <t>200000000000000001</t>
   </si>
   <si>
@@ -260,30 +245,6 @@
     <t>charge_time</t>
   </si>
   <si>
-    <t>2023-02-01 23:00:00.000000</t>
-  </si>
-  <si>
-    <t>2023-02-02 23:00:00.000000</t>
-  </si>
-  <si>
-    <t>2023-01-31 23:00:00.000000</t>
-  </si>
-  <si>
-    <t>2023-02-01 02:00:00.000000</t>
-  </si>
-  <si>
-    <t>2023-02-01 02:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 02:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 02:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-01 02:45:00</t>
-  </si>
-  <si>
     <t>charge_time_shortened</t>
   </si>
   <si>
@@ -326,9 +287,6 @@
     <t>P1M</t>
   </si>
   <si>
-    <t>tariff-hourly-4-co_is_tax</t>
-  </si>
-  <si>
     <t>from_date</t>
   </si>
   <si>
@@ -368,64 +326,88 @@
     <t>amount_per_charge</t>
   </si>
   <si>
-    <t>2023-02-03 02:00:00.000000</t>
-  </si>
-  <si>
-    <t>2023-02-03 02:00:00</t>
-  </si>
-  <si>
-    <t>calculated</t>
-  </si>
-  <si>
     <t>OutputCombination</t>
   </si>
   <si>
     <t>fee-1</t>
   </si>
   <si>
-    <t>fee-2</t>
-  </si>
-  <si>
-    <t>fee-3</t>
-  </si>
-  <si>
     <t>subscription-1</t>
   </si>
   <si>
-    <t>subscription-2</t>
-  </si>
-  <si>
-    <t>subscription-3</t>
-  </si>
-  <si>
     <t>tariff-hourly-1</t>
   </si>
   <si>
-    <t>tariff-hourly-2</t>
-  </si>
-  <si>
-    <t>tariff-hourly-3</t>
-  </si>
-  <si>
     <t>tariff-daily-1</t>
   </si>
   <si>
-    <t>tariff-daily-2</t>
-  </si>
-  <si>
-    <t>tariff-daily-3-co_is_tax</t>
-  </si>
-  <si>
     <t>0000000000800</t>
   </si>
   <si>
     <t>P1D</t>
   </si>
   <si>
-    <t>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</t>
-  </si>
-  <si>
-    <t>2023-02-03</t>
+    <t>2023-11-01 23:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-11-02 23:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-10-31 23:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-11-01 02:00:00.000000</t>
+  </si>
+  <si>
+    <t>2023-11-02 02:00:00.000000</t>
+  </si>
+  <si>
+    <t>tariff-hourly-2-co_is_tax</t>
+  </si>
+  <si>
+    <t>tariff-daily-2-co_is_tax</t>
+  </si>
+  <si>
+    <t>170000000000001000</t>
+  </si>
+  <si>
+    <t>180000000000001000</t>
+  </si>
+  <si>
+    <t>070000000000170101</t>
+  </si>
+  <si>
+    <t>2023-11-02 02:00</t>
+  </si>
+  <si>
+    <t>2023-11-03 02:00</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>5000000000000</t>
+  </si>
+  <si>
+    <t>5500000000000</t>
+  </si>
+  <si>
+    <t>6000000000000</t>
+  </si>
+  <si>
+    <t>6600000000000</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2023-11-02</t>
+  </si>
+  <si>
+    <t>tariff-hourly-2-co_is_tax--6660000000666--5000000000000--production</t>
   </si>
 </sst>
 </file>
@@ -497,9 +479,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="57">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -655,7 +640,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -670,7 +655,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000"/>
@@ -731,32 +716,32 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}" name="OutPut" displayName="OutPut" ref="B4:U28" totalsRowShown="0">
   <autoFilter ref="B4:U28" xr:uid="{D2FF87A6-8F25-416A-AF7A-DA3500DDFC40}"/>
   <tableColumns count="20">
-    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="55"/>
-    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="54"/>
-    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="53"/>
-    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="51">
+    <tableColumn id="17" xr3:uid="{F4A59025-41CA-47AD-952B-2428959E8A50}" name="calculation_id" dataDxfId="56"/>
+    <tableColumn id="18" xr3:uid="{F095173D-E1DC-4697-B288-D95D5945D253}" name="calculation_type" dataDxfId="55"/>
+    <tableColumn id="19" xr3:uid="{2C01FBCF-AEED-47E5-874A-D9CB2BD9D409}" name="calculation_execution_time_start" dataDxfId="54"/>
+    <tableColumn id="20" xr3:uid="{37341BB6-4D32-46E1-825A-6DF5D1A0D770}" name="calculation_result_id" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{0DDB3581-9EFD-4CD5-A5E4-AA25CC64A8EA}" name="grid_area_code" dataDxfId="52">
       <calculatedColumnFormula>$AC$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="50">
+    <tableColumn id="3" xr3:uid="{9ECD4A31-B204-4AAA-BCE0-A55479D4D6F9}" name="energy_supplier_id" dataDxfId="51">
       <calculatedColumnFormula>$E$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="49">
+    <tableColumn id="4" xr3:uid="{08094514-49A8-4D25-A69E-A75EB3232592}" name="quantity" dataDxfId="50">
       <calculatedColumnFormula>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="47">
+    <tableColumn id="5" xr3:uid="{88D10A42-9475-42BD-ADCA-A3FFA72BC973}" name="quantity_unit" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{A3DD608C-4E56-40B0-B1F7-95AC815014A7}" name="quantity_qualities" dataDxfId="48">
       <calculatedColumnFormula>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{FBD9FA55-93F5-4E1A-96F5-ED949010179F}" name="time" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{9932B718-7F22-4D96-BEE4-F0152DC66C3C}" name="resolution" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{E64C45EC-3ECC-46FF-85E7-A6E4C66A6B05}" name="metering_point_type" dataDxfId="45">
       <calculatedColumnFormula>$F$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="43">
+    <tableColumn id="10" xr3:uid="{0EF4D2F5-DCAF-46F8-9394-603FD6C1F55C}" name="settlement_method" dataDxfId="44">
       <calculatedColumnFormula>IF($G$3="","",$G$3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{DBC31B41-AB04-4AC3-9F13-BFC4F3EEAA92}" name="price" dataDxfId="43">
       <calculatedColumnFormula>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{D1E8A453-6F3B-41B3-A143-A8DCE8CA5BCA}" name="amount" dataDxfId="42">
@@ -806,10 +791,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{69DFFE3D-C209-469C-93C2-67D70897CECD}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{C2BA6440-DC16-4F9B-96BE-A9A0F237B7ED}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{DE42A2CB-11DB-40C9-972F-4996A60A2655}" name="charge_owner_id" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C462E5E9-79F8-4B90-AE92-B40FC6B4334A}" name="charge_price" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{C24479F8-FACC-4841-9EBA-38DC21F5176A}" name="charge_time" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{95636D1A-8B9F-4BA2-BBFA-C07691BB959D}" name="charge_time_shortened" dataDxfId="32">
       <calculatedColumnFormula>LEFT(E2,19)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -821,13 +806,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}" name="TimeSeriesPoints" displayName="TimeSeriesPoints" ref="A1:G26" totalsRowShown="0">
   <autoFilter ref="A1:G26" xr:uid="{3C8F0617-F039-41D8-8DF9-B9925F5FD292}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id"/>
-    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{ED5AEA4E-C692-4374-B1CE-C8D8084741D8}" name="metering_point_id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{DBE4F15E-E8C9-4215-9F8E-1B98001B79C1}" name="quantity" dataDxfId="31"/>
     <tableColumn id="3" xr3:uid="{D9F5ACD6-F0C4-4862-A8B2-60E7B62AC08B}" name="quality"/>
-    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{920B490A-353A-458C-88EB-A4C7A92A30BF}" name="observation_time" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{2111F635-3CBD-450C-8956-C061F4C2F263}" name="metering_point_type" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{111D7211-7EE4-420E-A428-72724271B430}" name="settlement_method" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{E3FD1FFD-3A22-44CC-B91A-56AD78045817}" name="hour" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -837,17 +822,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}" name="MeteringPointPeriods" displayName="MeteringPointPeriods" ref="A1:K26" totalsRowShown="0">
   <autoFilter ref="A1:K26" xr:uid="{9C23C94B-085F-44ED-9C29-B56B92F1B82F}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{BDDD221E-D8D0-4820-9E79-C550EEFB1552}" name="metering_point_id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{3264101E-B7CE-433E-95D3-ECAF67C4B197}" name="type" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{7C0D9AD3-5F1E-4528-9C99-D7C9C0B81870}" name="calculation_type" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{A7E122D3-3055-4D9F-A63D-DBCBA9074AEF}" name="settlement_method" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{BDA72DCA-8178-4B49-AC99-64FE311CA920}" name="grid_area_code" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{7C4FD7ED-486D-43F5-8209-FB7F4E50B817}" name="resolution" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{EA876C75-481F-4F0C-BFAD-2B6485E386C9}" name="from_grid_area_code" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{DDADF541-4D21-429F-AD29-34F72E0F5DB0}" name="to_grid_area_code" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{6873E7DA-25ED-4F63-9CC3-142EBFD5C96C}" name="parent_metering_point_id" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{5E7B70BE-3917-4AE6-83EA-8A871F97FB99}" name="energy_supplier_id" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{BE1BF5F2-4168-4BEC-B68C-E044D0519557}" name="balance_responsible_id" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -859,35 +844,35 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CF0BFE7C-60FC-42F9-9181-73CE1D7E20B7}" name="charge_code"/>
     <tableColumn id="2" xr3:uid="{673AD76B-379D-462E-928F-C6D0BFD5A10C}" name="charge_type"/>
-    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{243A323C-AF81-41DC-852D-4848600A710B}" name="charge_owner_id" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{AD6E792C-2C46-4350-8BAD-EFB6FA436C58}" name="resolution"/>
-    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{30067025-C046-41BD-B06F-E0FF1088CE27}" name="is_tax" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{0AB395C0-A6FB-4B10-918C-5C09E228F063}" name="from_date" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{62861BBF-4C0E-43ED-8B6A-11C6ED2A05A8}" name="to_date" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}" name="ChargeLinks" displayName="ChargeLinks" ref="A1:I25" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:I25" xr:uid="{4C016282-02DA-45DD-8144-000BF0AE3C4B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{5D866E37-33E8-4772-8058-91EEF8C237C2}" name="charge_code" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{490CB0A2-0EF8-4653-8A5E-9B8094165BDC}" name="charge_type" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7135A3A1-5051-429E-8261-8AB31A739FB5}" name="charge_owner_id" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{5C6B43BE-2B8F-4A1F-BF82-B40970FE2DC5}" name="metering_point_id" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{59F6ECAA-71F3-40FF-846D-92E4C6D2132D}" name="quantity" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{3847870A-615B-48A2-A325-CD1C7BAED26A}" name="energy_supplier_id" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{58B714A4-DCC0-4728-99C2-D5D8472B5530}" name="metering_point_type" dataDxfId="4">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{76EB7E81-9D94-4902-9DF2-1A4EF371DAF0}" name="settlement_method" dataDxfId="3">
       <calculatedColumnFormula>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{A2CD103B-C1B7-45F8-A620-EBFFDBF64097}" name="OutputCombination" dataDxfId="2">
       <calculatedColumnFormula>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1214,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70CB6AB-141A-4E8A-8579-9357A3BEFD45}">
   <dimension ref="B1:AD67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1256,136 +1241,133 @@
   <sheetData>
     <row r="1" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
       <c r="C3" t="str" cm="1">
-        <f t="array" ref="C3:G3">_xlfn.TEXTSPLIT(C1,"--")</f>
-        <v>tariff-hourly-1</v>
+        <f t="array" ref="C3:F3">_xlfn.TEXTSPLIT(C1,"--")</f>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="D3" t="str">
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="E3" t="str">
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="F3" t="str">
-        <v>consumption</v>
-      </c>
-      <c r="G3" t="str">
-        <v>non_profiled</v>
+        <v>production</v>
       </c>
       <c r="AC3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AD3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s">
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" t="s">
         <v>79</v>
       </c>
-      <c r="J4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" cm="1">
-        <f t="array" ref="AC4:AC6">_xlfn._xlws.SORT(_xlfn.UNIQUE(MeteringPointPeriods[grid_area_code]))</f>
+      <c r="AC4" t="str" cm="1">
+        <f t="array" ref="AC4:AC5">_xlfn._xlws.SORT(_xlfn.UNIQUE(MeteringPointPeriods[grid_area_code]))</f>
         <v>800</v>
       </c>
       <c r="AD4" t="str" cm="1">
-        <f t="array" ref="AD4:AD21">_xlfn.UNIQUE(ChargeLinks[OutputCombination])</f>
-        <v>fee-1--0000000000800--1000000000000--consumption--flex</v>
+        <f t="array" ref="AD4:AD10">_xlfn.UNIQUE(ChargeLinks[OutputCombination])</f>
+        <v>fee-1--0000000000800--5000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5">
+        <v>83</v>
+      </c>
+      <c r="F5" t="str">
         <f t="shared" ref="F5:F28" si="0">$AC$4</f>
         <v>800</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G28" si="1">$E$3</f>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H5" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J5" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1393,18 +1375,18 @@
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" ref="K5">CONCATENATE(INDEX(AC30:AC58,MATCH(H1,AC30:AC58,0)-1,1)," 23:00:00")</f>
-        <v>2023-02-02 23:00:00</v>
+        <v>2023-11-01 23:00:00</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ref="M5:M28" si="2">$F$3</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N5" s="3" t="str">
         <f t="shared" ref="N5:N28" si="3">IF($G$3="","",$G$3)</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O5" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1416,56 +1398,56 @@
       </c>
       <c r="Q5" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R5" t="str">
         <f t="shared" ref="R5:R28" si="4">$C$3</f>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S5" t="s">
         <v>2</v>
       </c>
       <c r="T5" t="str">
         <f t="shared" ref="T5:T28" si="5">$D$3</f>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AC5">
-        <v>801</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="str">
-        <v>fee-2--0000000000800--1000000000000--consumption_from_grid</v>
+        <v>subscription-1--0000000000800--5000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6">
+        <v>83</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H6" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J6" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1473,18 +1455,18 @@
       </c>
       <c r="K6" t="str">
         <f>CONCATENATE(H$1," 00:00:00")</f>
-        <v>2023-02-03 00:00:00</v>
+        <v>2023-11-02 00:00:00</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O6" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1496,56 +1478,53 @@
       </c>
       <c r="Q6" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R6" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S6" t="s">
         <v>2</v>
       </c>
       <c r="T6" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AD6" t="str">
-        <v>fee-2--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v>tariff-hourly-1--0000000000800--5000000000000--production</v>
       </c>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7">
+        <v>83</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H7" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J7" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1553,18 +1532,18 @@
       </c>
       <c r="K7" t="str">
         <f>CONCATENATE(H$1," 01:00:00")</f>
-        <v>2023-02-03 01:00:00</v>
+        <v>2023-11-02 01:00:00</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N7" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O7" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1576,130 +1555,130 @@
       </c>
       <c r="Q7" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R7" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S7" t="s">
         <v>2</v>
       </c>
       <c r="T7" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AD7" t="str">
-        <v>fee-3--0000000000800--2000000000000--production</v>
+        <v>tariff-hourly-2-co_is_tax--6660000000666--5000000000000--production</v>
       </c>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8">
+        <v>83</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H8" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J8" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
-        <v>['missing']</v>
+        <v>['measured']</v>
       </c>
       <c r="K8" t="str">
         <f>CONCATENATE(H$1," 02:00:00")</f>
-        <v>2023-02-03 02:00:00</v>
+        <v>2023-11-02 02:00:00</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O8" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="P8" s="3" t="str">
         <f>IF(OutPut[[#This Row],[price]]="","",SUBSTITUTE(ROUND(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])*SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),6),",","."))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R8" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S8" t="s">
         <v>2</v>
       </c>
       <c r="T8" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AD8" t="str">
-        <v>subscription-1--0000000000800--1000000000000--consumption--flex</v>
+        <v>tariff-daily-1--0000000000800--5000000000000--production</v>
       </c>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9">
+        <v>83</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H9" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J9" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1707,18 +1686,18 @@
       </c>
       <c r="K9" t="str">
         <f>CONCATENATE(H$1," 03:00:00")</f>
-        <v>2023-02-03 03:00:00</v>
+        <v>2023-11-02 03:00:00</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N9" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O9" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1730,53 +1709,53 @@
       </c>
       <c r="Q9" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S9" t="s">
         <v>2</v>
       </c>
       <c r="T9" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U9" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AD9" t="str">
-        <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v>tariff-daily-2-co_is_tax--6660000000666--5000000000000--production</v>
       </c>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10">
+        <v>83</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H10" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J10" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1784,18 +1763,18 @@
       </c>
       <c r="K10" t="str">
         <f>CONCATENATE(H$1," 04:00:00")</f>
-        <v>2023-02-03 04:00:00</v>
+        <v>2023-11-02 04:00:00</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O10" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1807,53 +1786,53 @@
       </c>
       <c r="Q10" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R10" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S10" t="s">
         <v>2</v>
       </c>
       <c r="T10" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U10" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="AD10" t="str">
-        <v>subscription-2--0000000000800--2000000000000--production</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11">
+        <v>83</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H11" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J11" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1861,18 +1840,18 @@
       </c>
       <c r="K11" t="str">
         <f>CONCATENATE(H$1," 05:00:00")</f>
-        <v>2023-02-03 05:00:00</v>
+        <v>2023-11-02 05:00:00</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O11" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1884,53 +1863,50 @@
       </c>
       <c r="Q11" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R11" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S11" t="s">
         <v>2</v>
       </c>
       <c r="T11" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" t="str">
-        <v>subscription-3--0000000000800--2000000000000--own_production</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H12" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J12" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -1938,18 +1914,18 @@
       </c>
       <c r="K12" t="str">
         <f>CONCATENATE(H$1," 06:00:00")</f>
-        <v>2023-02-03 06:00:00</v>
+        <v>2023-11-02 06:00:00</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O12" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -1961,53 +1937,50 @@
       </c>
       <c r="Q12" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R12" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S12" t="s">
         <v>2</v>
       </c>
       <c r="T12" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD12" t="str">
-        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13">
+        <v>83</v>
+      </c>
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H13" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J13" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2015,18 +1988,18 @@
       </c>
       <c r="K13" t="str">
         <f>CONCATENATE(H$1," 07:00:00")</f>
-        <v>2023-02-03 07:00:00</v>
+        <v>2023-11-02 07:00:00</v>
       </c>
       <c r="L13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O13" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2038,53 +2011,50 @@
       </c>
       <c r="Q13" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R13" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S13" t="s">
         <v>2</v>
       </c>
       <c r="T13" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD13" t="str">
-        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14">
+        <v>83</v>
+      </c>
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H14" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J14" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2092,18 +2062,18 @@
       </c>
       <c r="K14" t="str">
         <f>CONCATENATE(H$1," 08:00:00")</f>
-        <v>2023-02-03 08:00:00</v>
+        <v>2023-11-02 08:00:00</v>
       </c>
       <c r="L14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O14" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2115,53 +2085,50 @@
       </c>
       <c r="Q14" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R14" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S14" t="s">
         <v>2</v>
       </c>
       <c r="T14" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD14" t="str">
-        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15">
+        <v>83</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H15" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J15" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2169,18 +2136,18 @@
       </c>
       <c r="K15" t="str">
         <f>CONCATENATE(H$1," 09:00:00")</f>
-        <v>2023-02-03 09:00:00</v>
+        <v>2023-11-02 09:00:00</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O15" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2192,53 +2159,50 @@
       </c>
       <c r="Q15" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R15" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S15" t="s">
         <v>2</v>
       </c>
       <c r="T15" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" t="str">
-        <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16">
+        <v>83</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H16" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J16" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2246,18 +2210,18 @@
       </c>
       <c r="K16" t="str">
         <f>CONCATENATE(H$1," 10:00:00")</f>
-        <v>2023-02-03 10:00:00</v>
+        <v>2023-11-02 10:00:00</v>
       </c>
       <c r="L16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O16" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2269,53 +2233,50 @@
       </c>
       <c r="Q16" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S16" t="s">
         <v>2</v>
       </c>
       <c r="T16" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD16" t="str">
-        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17">
+        <v>83</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H17" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J17" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2323,18 +2284,18 @@
       </c>
       <c r="K17" t="str">
         <f>CONCATENATE(H$1," 11:00:00")</f>
-        <v>2023-02-03 11:00:00</v>
+        <v>2023-11-02 11:00:00</v>
       </c>
       <c r="L17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N17" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O17" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2346,53 +2307,50 @@
       </c>
       <c r="Q17" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R17" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S17" t="s">
         <v>2</v>
       </c>
       <c r="T17" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD17" t="str">
-        <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18">
+        <v>83</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H18" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J18" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2400,18 +2358,18 @@
       </c>
       <c r="K18" t="str">
         <f>CONCATENATE(H$1," 12:00:00")</f>
-        <v>2023-02-03 12:00:00</v>
+        <v>2023-11-02 12:00:00</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N18" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O18" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2423,53 +2381,50 @@
       </c>
       <c r="Q18" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R18" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S18" t="s">
         <v>2</v>
       </c>
       <c r="T18" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD18" t="str">
-        <v>tariff-daily-1--0000000000800--1000000000000--consumption--flex</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19">
+        <v>83</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H19" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J19" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2477,18 +2432,18 @@
       </c>
       <c r="K19" t="str">
         <f>CONCATENATE(H$1," 13:00:00")</f>
-        <v>2023-02-03 13:00:00</v>
+        <v>2023-11-02 13:00:00</v>
       </c>
       <c r="L19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N19" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O19" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2500,53 +2455,50 @@
       </c>
       <c r="Q19" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R19" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
       </c>
       <c r="T19" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD19" t="str">
-        <v>tariff-daily-2--0000000000800--2000000000000--production</v>
-      </c>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20">
+        <v>83</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H20" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J20" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2554,18 +2506,18 @@
       </c>
       <c r="K20" t="str">
         <f>CONCATENATE(H$1," 14:00:00")</f>
-        <v>2023-02-03 14:00:00</v>
+        <v>2023-11-02 14:00:00</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O20" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2577,53 +2529,50 @@
       </c>
       <c r="Q20" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R20" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S20" t="s">
         <v>2</v>
       </c>
       <c r="T20" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD20" t="str">
-        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21">
+        <v>83</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H21" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J21" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2631,18 +2580,18 @@
       </c>
       <c r="K21" t="str">
         <f>CONCATENATE(H$1," 15:00:00")</f>
-        <v>2023-02-03 15:00:00</v>
+        <v>2023-11-02 15:00:00</v>
       </c>
       <c r="L21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N21" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O21" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2654,53 +2603,50 @@
       </c>
       <c r="Q21" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R21" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S21" t="s">
         <v>2</v>
       </c>
       <c r="T21" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD21" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22">
+        <v>83</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H22" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J22" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2708,18 +2654,18 @@
       </c>
       <c r="K22" t="str">
         <f>CONCATENATE(H$1," 16:00:00")</f>
-        <v>2023-02-03 16:00:00</v>
+        <v>2023-11-02 16:00:00</v>
       </c>
       <c r="L22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N22" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O22" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2731,50 +2677,50 @@
       </c>
       <c r="Q22" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R22" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S22" t="s">
         <v>2</v>
       </c>
       <c r="T22" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23">
+        <v>83</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H23" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J23" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2782,18 +2728,18 @@
       </c>
       <c r="K23" t="str">
         <f>CONCATENATE(H$1," 17:00:00")</f>
-        <v>2023-02-03 17:00:00</v>
+        <v>2023-11-02 17:00:00</v>
       </c>
       <c r="L23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N23" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O23" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2805,50 +2751,50 @@
       </c>
       <c r="Q23" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S23" t="s">
         <v>2</v>
       </c>
       <c r="T23" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24">
+        <v>83</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H24" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J24" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2856,18 +2802,18 @@
       </c>
       <c r="K24" t="str">
         <f>CONCATENATE(H$1," 18:00:00")</f>
-        <v>2023-02-03 18:00:00</v>
+        <v>2023-11-02 18:00:00</v>
       </c>
       <c r="L24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N24" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O24" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2879,50 +2825,50 @@
       </c>
       <c r="Q24" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S24" t="s">
         <v>2</v>
       </c>
       <c r="T24" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25">
+        <v>83</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H25" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J25" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -2930,18 +2876,18 @@
       </c>
       <c r="K25" t="str">
         <f>CONCATENATE(H$1," 19:00:00")</f>
-        <v>2023-02-03 19:00:00</v>
+        <v>2023-11-02 19:00:00</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N25" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O25" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -2953,50 +2899,50 @@
       </c>
       <c r="Q25" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S25" t="s">
         <v>2</v>
       </c>
       <c r="T25" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26">
+        <v>83</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H26" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J26" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3004,18 +2950,18 @@
       </c>
       <c r="K26" t="str">
         <f>CONCATENATE(H$1," 20:00:00")</f>
-        <v>2023-02-03 20:00:00</v>
+        <v>2023-11-02 20:00:00</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N26" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O26" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -3027,50 +2973,50 @@
       </c>
       <c r="Q26" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S26" t="s">
         <v>2</v>
       </c>
       <c r="T26" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H27" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J27" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3078,18 +3024,18 @@
       </c>
       <c r="K27" t="str">
         <f>CONCATENATE(H$1," 21:00:00")</f>
-        <v>2023-02-03 21:00:00</v>
+        <v>2023-11-02 21:00:00</v>
       </c>
       <c r="L27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N27" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O27" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -3101,50 +3047,50 @@
       </c>
       <c r="Q27" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S27" t="s">
         <v>2</v>
       </c>
       <c r="T27" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28">
+        <v>83</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="H28" t="str">
         <f>SUBSTITUTE(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]]),",",".")</f>
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J28" t="str">
         <f>IF(SUMIFS(TimeSeriesPoints[quantity],TimeSeriesPoints[metering_point_type],OutPut[[#This Row],[metering_point_type]],TimeSeriesPoints[settlement_method],OutPut[[#This Row],[settlement_method]],TimeSeriesPoints[hour],OutPut[[#This Row],[time]])&gt;0,"['measured']","['missing']")</f>
@@ -3152,18 +3098,18 @@
       </c>
       <c r="K28" t="str">
         <f>CONCATENATE(H$1," 22:00:00")</f>
-        <v>2023-02-03 22:00:00</v>
+        <v>2023-11-02 22:00:00</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="2"/>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="N28" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="O28" s="3" t="str">
         <f>IF(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]])=0,"",SUBSTITUTE(SUMIFS(ChargePricePoints[charge_price],ChargePricePoints[charge_time_shortened],OutPut[[#This Row],[time]],ChargePricePoints[charge_code],OutPut[[#This Row],[charge_code]]),",","."))</f>
@@ -3175,57 +3121,57 @@
       </c>
       <c r="Q28" t="str">
         <f>VLOOKUP(C$3,ChargePriceInformationPeriods[],5,FALSE)</f>
-        <v>false</v>
+        <v>true</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" si="4"/>
-        <v>tariff-hourly-1</v>
+        <v>tariff-hourly-2-co_is_tax</v>
       </c>
       <c r="S28" t="s">
         <v>2</v>
       </c>
       <c r="T28" t="str">
         <f t="shared" si="5"/>
-        <v>0000000000800</v>
+        <v>6660000000666</v>
       </c>
       <c r="U28" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="Z28" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Z29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="AC29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.35">
       <c r="I30" s="2"/>
       <c r="V30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="str" cm="1">
-        <f t="array" ref="AC30:AC33">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.UNIQUE(LEFT(ChargePricePoints[charge_time],10)),_xlfn.UNIQUE(LEFT(ChargePricePoints[charge_time],10))&lt;&gt;""))</f>
-        <v>2023-01-31</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+        <f t="array" ref="AC30:AC32">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(_xlfn.UNIQUE(LEFT(ChargePricePoints[charge_time],10)),_xlfn.UNIQUE(LEFT(ChargePricePoints[charge_time],10))&lt;&gt;""))</f>
+        <v>2023-10-31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.35">
       <c r="I31" s="2"/>
       <c r="V31" s="2"/>
       <c r="Y31" s="2"/>
@@ -3233,136 +3179,133 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" t="str">
-        <v>2023-02-01</v>
-      </c>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+        <v>2023-11-01</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.35">
       <c r="Y32" s="2"/>
       <c r="Z32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="str">
-        <v>2023-02-02</v>
-      </c>
-    </row>
-    <row r="33" spans="25:29" x14ac:dyDescent="0.35">
+        <v>2023-11-02</v>
+      </c>
+    </row>
+    <row r="33" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y33" s="2"/>
       <c r="Z33" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="AB33" s="2"/>
-      <c r="AC33" t="str">
-        <v>2023-02-03</v>
-      </c>
-    </row>
-    <row r="34" spans="25:29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y34" s="2"/>
       <c r="Z34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="35" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y35" s="2"/>
       <c r="Z35" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA35" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="36" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y36" s="2"/>
       <c r="Z36" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="37" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y37" s="2"/>
       <c r="Z37" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="38" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="39" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
     </row>
-    <row r="40" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="40" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
     </row>
-    <row r="41" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="41" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
     </row>
-    <row r="42" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="42" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
     </row>
-    <row r="43" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="43" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
     </row>
-    <row r="44" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="44" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
     </row>
-    <row r="45" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="45" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
     </row>
-    <row r="46" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="46" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
     </row>
-    <row r="47" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="47" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
     </row>
-    <row r="48" spans="25:29" x14ac:dyDescent="0.35">
+    <row r="48" spans="25:28" x14ac:dyDescent="0.35">
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
@@ -3681,14 +3624,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.54296875" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.81640625" bestFit="1" customWidth="1"/>
@@ -3696,337 +3639,290 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="F2" s="7" t="str">
         <f t="shared" ref="F2:F25" si="0">LEFT(E2,19)</f>
-        <v>2023-02-01 23:00:00</v>
+        <v>2023-11-01 23:00:00</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
+        <v>2023-11-02 23:00:00</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
+        <v>2023-10-31 23:00:00</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D5" s="5">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
+        <v>2023-11-01 02:00:00</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
+        <v>2023-11-02 02:00:00</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
+        <v>2023-11-01 02:00:00</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
+        <v>2023-11-02 02:00:00</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D9" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-01 23:00:00</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D10" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-03 02:00:00</v>
+        <v>2023-11-02 23:00:00</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-03 02:00:00</v>
+        <v>2023-11-01 23:00:00</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5">
-        <v>7.6543210000000004</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-02 23:00:00</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="5">
-        <v>666.66666599999996</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-01-31 23:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="5">
-        <v>666.66666599999996</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2023-02-02 23:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.35">
@@ -4123,12 +4019,12 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
@@ -4139,39 +4035,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4179,25 +4075,25 @@
       </c>
       <c r="F2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v>flex</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-02 02:00</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4205,25 +4101,25 @@
       </c>
       <c r="F3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v>flex</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-03 02:00</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4235,21 +4131,21 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-02 02:00</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4261,51 +4157,51 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-03 02:00</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="G6" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-02 02:00</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v>production</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -4313,21 +4209,21 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-03 02:00:00</v>
+        <v>2023-11-03 02:00</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
-        <v>3357</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -4339,25 +4235,25 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-02 02:00</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
-        <v>40159</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v>exchange</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -4365,7 +4261,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v>2023-11-03 02:00</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -4423,6 +4319,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="str">
@@ -4457,6 +4354,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="str">
@@ -4473,125 +4371,85 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3.379</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="F16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G16" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3">
-        <v>3.38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="F17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G17" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3">
-        <v>3.3780000000000001</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="F18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G18" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="F19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="G19" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3">
-        <v>4.1210000000000004</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A20" s="6"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="F20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -4599,25 +4457,17 @@
       </c>
       <c r="G20" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="F21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -4625,25 +4475,17 @@
       </c>
       <c r="G21" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="F22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -4651,25 +4493,17 @@
       </c>
       <c r="G22" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="E23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="F23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(TimeSeriesPoints[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -4677,10 +4511,11 @@
       </c>
       <c r="G23" s="4" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(TimeSeriesPoints[[#This Row],[observation_time]],":15:00",":00:00"),":30:00",":00:00"),":45:00",":00:00")</f>
-        <v>2023-02-01 02:00:00</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4" t="str">
@@ -4697,6 +4532,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4" t="str">
@@ -4713,6 +4549,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4" t="str">
@@ -4741,7 +4578,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4761,328 +4598,368 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2">
-        <v>800</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>800</v>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>800</v>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>800</v>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>800</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2">
-        <v>800</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>800</v>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="I8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>800</v>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>800</v>
+      <c r="E10" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>801</v>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="2">
-        <v>801</v>
-      </c>
-      <c r="H11" s="2">
-        <v>800</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -5256,7 +5133,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G2:G12"/>
+      <selection activeCell="A2" sqref="A2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5272,42 +5149,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1">
         <v>42400.958333333336</v>
@@ -5316,19 +5193,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1">
         <v>42400.958333333336</v>
@@ -5337,19 +5214,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1">
         <v>42400.958333333336</v>
@@ -5358,19 +5235,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F5" s="1">
         <v>42400.958333333336</v>
@@ -5379,19 +5256,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1">
         <v>42400.958333333336</v>
@@ -5400,19 +5277,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1">
         <v>42400.958333333336</v>
@@ -5420,150 +5297,45 @@
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="1">
-        <v>42400.958333333336</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="1">
-        <v>42400.958333333336</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="1">
-        <v>42400.958333333336</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="1">
-        <v>42400.958333333336</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F12" s="1">
-        <v>42400.958333333336</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="1">
-        <v>42400.958333333336</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="1">
-        <v>42400.958333333336</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
   </sheetData>
@@ -5579,7 +5351,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5597,85 +5369,85 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F2" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="G2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>consumption_from_grid</v>
       </c>
       <c r="H2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I2" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-1--0000000000800--1000000000000--consumption--flex</v>
+        <v>fee-1--0000000000800--5000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -5687,61 +5459,61 @@
       </c>
       <c r="I3" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-2--0000000000800--1000000000000--consumption_from_grid</v>
+        <v>fee-1--0000000000800--5000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>consumption_from_grid</v>
       </c>
       <c r="H4" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I4" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-2--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v>subscription-1--0000000000800--5000000000000--consumption_from_grid</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="G5" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
@@ -5753,131 +5525,121 @@
       </c>
       <c r="I5" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>fee-3--0000000000800--2000000000000--production</v>
+        <v>tariff-hourly-1--0000000000800--5000000000000--production</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="G6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="H6" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I6" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-1--0000000000800--1000000000000--consumption--flex</v>
+        <v>tariff-hourly-2-co_is_tax--6660000000666--5000000000000--production</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="H7" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I7" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v>tariff-daily-1--0000000000800--5000000000000--production</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v>5000000000000</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v>production</v>
       </c>
       <c r="H8" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I8" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-2--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v>tariff-daily-2-co_is_tax--6660000000666--5000000000000--production</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="H9" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -5885,32 +5647,22 @@
       </c>
       <c r="I9" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-2--0000000000800--2000000000000--production</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>own_production</v>
+        <v/>
       </c>
       <c r="H10" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -5918,164 +5670,114 @@
       </c>
       <c r="I10" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>subscription-3--0000000000800--2000000000000--own_production</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H11" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I11" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H12" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I12" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v/>
       </c>
       <c r="G13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H13" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I13" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v/>
       </c>
       <c r="G14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H14" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I14" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-1--0000000000800--1000000000000--consumption--flex</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v/>
       </c>
       <c r="G15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v/>
       </c>
       <c r="H15" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -6083,32 +5785,22 @@
       </c>
       <c r="I15" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-2--0000000000800--1000000000000--consumption_from_grid</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="H16" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -6116,32 +5808,22 @@
       </c>
       <c r="I16" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="H17" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -6149,164 +5831,114 @@
       </c>
       <c r="I17" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-3--0000000000800--2000000000000--production</v>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v/>
       </c>
       <c r="G18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H18" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I18" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-hourly-4-co_is_tax--6660000000666--1000000000000--consumption--flex</v>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H19" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I19" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>3000000000000</v>
+        <v/>
       </c>
       <c r="G20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H20" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>non_profiled</v>
+        <v/>
       </c>
       <c r="I20" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--3000000000000--consumption--non_profiled</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v/>
       </c>
       <c r="G21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption</v>
+        <v/>
       </c>
       <c r="H21" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
-        <v>flex</v>
+        <v/>
       </c>
       <c r="I21" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-1--0000000000800--1000000000000--consumption--flex</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>2000000000000</v>
+        <v/>
       </c>
       <c r="G22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>production</v>
+        <v/>
       </c>
       <c r="H22" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -6314,32 +5946,22 @@
       </c>
       <c r="I22" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-2--0000000000800--2000000000000--production</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="4" t="str">
         <f>_xlfn.IFNA(IF(AND(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E17",VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE)&lt;&gt;"E18"),VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],9,FALSE),MeteringPointPeriods[],10,FALSE),VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],10,FALSE)),"")</f>
-        <v>1000000000000</v>
+        <v/>
       </c>
       <c r="G23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],2,FALSE),MPTypeMapping[],2,FALSE),"")</f>
-        <v>consumption_from_grid</v>
+        <v/>
       </c>
       <c r="H23" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(VLOOKUP(ChargeLinks[[#This Row],[metering_point_id]],MeteringPointPeriods[],4,FALSE),SettlementMapping[],2,FALSE),"")</f>
@@ -6347,7 +5969,7 @@
       </c>
       <c r="I23" s="4" t="str">
         <f>_xlfn.TEXTJOIN("--",TRUE,ChargeLinks[[#This Row],[charge_code]],ChargeLinks[[#This Row],[charge_owner_id]],ChargeLinks[[#This Row],[energy_supplier_id]],ChargeLinks[[#This Row],[metering_point_type]],ChargeLinks[[#This Row],[settlement_method]])</f>
-        <v>tariff-daily-3-co_is_tax--6660000000666--1000000000000--consumption_from_grid</v>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
